--- a/tabels.xlsx
+++ b/tabels.xlsx
@@ -253,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,21 +263,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
       <charset val="238"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -292,14 +333,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -605,748 +663,784 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>81123</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2">
-        <v>3</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="K3" s="4">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5">
         <v>500</v>
       </c>
-      <c r="M3" s="2">
-        <v>3</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="M3" s="4">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
         <v>20150605</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>20160307</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="4">
         <v>1</v>
       </c>
-      <c r="R3" s="2"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>81324</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>132.41999999999999</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>15</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>20150402</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>30011231</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="4">
         <v>2</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>21424</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>7</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>213.14</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>25</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>20150909</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>20170101</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="2">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2"/>
+      <c r="Q5" s="4">
+        <v>3</v>
+      </c>
+      <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4">
         <v>4</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
         <v>560.34</v>
       </c>
-      <c r="M6" s="2">
-        <v>3</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4">
         <v>20160308</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>20160414</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <v>1</v>
       </c>
-      <c r="R6" s="2"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="2">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="I7" s="4">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
         <v>5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="5">
         <v>213.14</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>25</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>20170102</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="4">
         <v>20180501</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="4">
         <v>2</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="2" t="s">
+      <c r="P9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="4">
         <v>20160103</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="5">
         <v>500</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>2</v>
       </c>
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4">
         <v>20150925</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="5">
         <v>213.14</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
         <v>5</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="4">
         <v>20170125</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="5">
         <v>213.14</v>
       </c>
-      <c r="L17" s="2"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="2" t="s">
+      <c r="H18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
     </row>

--- a/tabels.xlsx
+++ b/tabels.xlsx
@@ -253,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,14 @@
       <family val="3"/>
       <charset val="238"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Inconsolata"/>
+      <family val="3"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -333,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -358,6 +366,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +674,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -674,13 +685,13 @@
     <col min="4" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
@@ -969,22 +980,22 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="4">
@@ -1061,37 +1072,37 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="4" t="s">
+      <c r="P9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="4" t="s">
+      <c r="R9" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1164,10 +1175,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="4">
@@ -1255,19 +1266,19 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1305,13 +1316,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
     </row>

--- a/tabels.xlsx
+++ b/tabels.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
   <si>
     <t>mba_id</t>
   </si>
@@ -247,13 +247,43 @@
   </si>
   <si>
     <t>oco_id</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Service Page - podział na zadania (linki do poszczególnych zadań)</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>Service Page - kooperator - tabela z danymi + dodanie nowego</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>Service Page - kooperator - edycja kooperatora</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,53 +293,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Inconsolata"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Inconsolata"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Inconsolata"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
-      <name val="Inconsolata"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Inconsolata"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Inconsolata"/>
-      <family val="3"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +366,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,34 +385,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,13 +718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
@@ -980,22 +1027,22 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H7" s="4">
@@ -1072,37 +1119,37 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+      <c r="P9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1113,7 +1160,7 @@
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1124,7 +1171,7 @@
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1175,10 +1222,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="4">
@@ -1266,19 +1313,19 @@
       <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1316,34 +1363,34 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1361,7 +1408,7 @@
         <v>64</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>62</v>
@@ -1383,7 +1430,7 @@
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>65</v>
@@ -1405,24 +1452,24 @@
         <v>70</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -1433,7 +1480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -1444,7 +1491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1453,6 +1500,38 @@
       </c>
       <c r="E36" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tabels.xlsx
+++ b/tabels.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateuszboroch/work/budget/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
   <si>
     <t>mba_id</t>
   </si>
@@ -277,6 +285,111 @@
   </si>
   <si>
     <t>DELETE</t>
+  </si>
+  <si>
+    <t>pobranie danych kooperatora</t>
+  </si>
+  <si>
+    <t>ENDPOINT</t>
+  </si>
+  <si>
+    <t>budget/backend/api/v1.0/</t>
+  </si>
+  <si>
+    <t>cooperators</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>dodanie kooperatora</t>
+  </si>
+  <si>
+    <t>ACTIONS</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <t>zmiana danych kooperatroa</t>
+  </si>
+  <si>
+    <t>ATTR (REQ)</t>
+  </si>
+  <si>
+    <t>ATTR (ALLOW)</t>
+  </si>
+  <si>
+    <t>PARAMS(ALL)</t>
+  </si>
+  <si>
+    <t>PARAMS(REQ)</t>
+  </si>
+  <si>
+    <t>/:id</t>
+  </si>
+  <si>
+    <t>coopName,
+coopShortName,
+coopZIP,
+coopCity,
+coopAddress</t>
+  </si>
+  <si>
+    <t>at least on of allowed</t>
+  </si>
+  <si>
+    <t>dodanie nowej pozycji</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>pobranie danych bazy</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>templateNotice</t>
+  </si>
+  <si>
+    <t>baseName,
+coopID,
+referenceAmount,
+referenceDate,
+dateFrom,
+dateTo,
+accountNr,
+payTypeID</t>
+  </si>
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t>templateID,
+paymentDate,
+paymentAmount</t>
+  </si>
+  <si>
+    <t>paymentNotice</t>
+  </si>
+  <si>
+    <t>edycja płatności</t>
+  </si>
+  <si>
+    <t>one of allowed</t>
+  </si>
+  <si>
+    <t>paymentDate,
+paymentAmount,
+paymentNotice</t>
+  </si>
+  <si>
+    <t>maintable</t>
+  </si>
+  <si>
+    <t>?d1={date}&amp;d2={date}</t>
   </si>
 </sst>
 </file>
@@ -347,7 +460,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,6 +485,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -385,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,9 +536,21 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,7 +565,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -472,9 +603,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +640,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -544,7 +675,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -718,35 +849,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="2"/>
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="2"/>
+    <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,7 +900,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
@@ -822,7 +953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -873,7 +1004,7 @@
       </c>
       <c r="R3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -924,7 +1055,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -975,7 +1106,7 @@
       </c>
       <c r="R5" s="4"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1157,7 @@
       </c>
       <c r="R6" s="4"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -1077,7 +1208,7 @@
       </c>
       <c r="R7" s="4"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1112,7 +1243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1153,7 +1284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1164,7 +1295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1175,7 +1306,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1183,7 +1314,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -1198,7 +1329,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1221,7 +1352,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1373,7 @@
       </c>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H16" s="4">
         <v>2</v>
       </c>
@@ -1257,7 +1388,7 @@
       </c>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1277,7 +1408,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1329,7 +1460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -1340,7 +1471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -1351,7 +1482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1373,12 +1504,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
@@ -1392,122 +1523,122 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="2" t="s">
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="2" t="s">
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -1518,7 +1649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -1526,7 +1657,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -1534,32 +1665,270 @@
         <v>83</v>
       </c>
     </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="112" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="A44:B44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>